--- a/SchedulingData/dynamic12/pso/scheduling2_10.xlsx
+++ b/SchedulingData/dynamic12/pso/scheduling2_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,40 +462,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>205.16</v>
+        <v>252.26</v>
       </c>
       <c r="D2" t="n">
-        <v>272.86</v>
+        <v>304.86</v>
       </c>
       <c r="E2" t="n">
-        <v>16.344</v>
+        <v>12.204</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>237.9</v>
+        <v>304.86</v>
       </c>
       <c r="D3" t="n">
-        <v>269.1</v>
+        <v>346.46</v>
       </c>
       <c r="E3" t="n">
-        <v>14.3</v>
+        <v>9.683999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -508,108 +508,108 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>266.26</v>
+        <v>346.46</v>
       </c>
       <c r="D4" t="n">
-        <v>323.16</v>
+        <v>428.16</v>
       </c>
       <c r="E4" t="n">
-        <v>13.744</v>
+        <v>6.604</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>272.86</v>
+        <v>203.78</v>
       </c>
       <c r="D5" t="n">
-        <v>332.92</v>
+        <v>259.6</v>
       </c>
       <c r="E5" t="n">
-        <v>13.968</v>
+        <v>14.66</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>259.94</v>
+        <v>239.42</v>
       </c>
       <c r="D6" t="n">
-        <v>320.24</v>
+        <v>306.08</v>
       </c>
       <c r="E6" t="n">
-        <v>14.036</v>
+        <v>14.052</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>320.24</v>
+        <v>214.46</v>
       </c>
       <c r="D7" t="n">
-        <v>388.12</v>
+        <v>283.6</v>
       </c>
       <c r="E7" t="n">
-        <v>10.388</v>
+        <v>13.3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>323.16</v>
+        <v>206.58</v>
       </c>
       <c r="D8" t="n">
-        <v>375.06</v>
+        <v>253.7</v>
       </c>
       <c r="E8" t="n">
-        <v>10.664</v>
+        <v>13.82</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>332.92</v>
+        <v>239.52</v>
       </c>
       <c r="D9" t="n">
-        <v>373.42</v>
+        <v>311.6</v>
       </c>
       <c r="E9" t="n">
-        <v>11.048</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
@@ -618,207 +618,207 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>207.9</v>
+        <v>311.6</v>
       </c>
       <c r="D10" t="n">
-        <v>256.72</v>
+        <v>377.84</v>
       </c>
       <c r="E10" t="n">
-        <v>12.028</v>
+        <v>6.996</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>388.12</v>
+        <v>306.08</v>
       </c>
       <c r="D11" t="n">
-        <v>474.82</v>
+        <v>361.28</v>
       </c>
       <c r="E11" t="n">
-        <v>7.308</v>
+        <v>11.632</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>269.1</v>
+        <v>259.6</v>
       </c>
       <c r="D12" t="n">
-        <v>313.52</v>
+        <v>295.28</v>
       </c>
       <c r="E12" t="n">
-        <v>11.968</v>
+        <v>11.732</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>256.72</v>
+        <v>283.6</v>
       </c>
       <c r="D13" t="n">
-        <v>308.62</v>
+        <v>333.34</v>
       </c>
       <c r="E13" t="n">
-        <v>9.468</v>
+        <v>9.956</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>313.52</v>
+        <v>377.84</v>
       </c>
       <c r="D14" t="n">
-        <v>359</v>
+        <v>417.8</v>
       </c>
       <c r="E14" t="n">
-        <v>9.039999999999999</v>
+        <v>4.62</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>206.84</v>
+        <v>333.34</v>
       </c>
       <c r="D15" t="n">
-        <v>284.06</v>
+        <v>369.54</v>
       </c>
       <c r="E15" t="n">
-        <v>11.244</v>
+        <v>7.476</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>375.06</v>
+        <v>369.54</v>
       </c>
       <c r="D16" t="n">
-        <v>430.26</v>
+        <v>417.14</v>
       </c>
       <c r="E16" t="n">
-        <v>6.284</v>
+        <v>5.316</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>373.42</v>
+        <v>428.16</v>
       </c>
       <c r="D17" t="n">
-        <v>447.76</v>
+        <v>501.5</v>
       </c>
       <c r="E17" t="n">
-        <v>7.744</v>
+        <v>3.38</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>284.06</v>
+        <v>253.7</v>
       </c>
       <c r="D18" t="n">
-        <v>333.86</v>
+        <v>298.12</v>
       </c>
       <c r="E18" t="n">
-        <v>7.404</v>
+        <v>11.488</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>308.62</v>
+        <v>295.28</v>
       </c>
       <c r="D19" t="n">
-        <v>377.58</v>
+        <v>342.88</v>
       </c>
       <c r="E19" t="n">
-        <v>6.192</v>
+        <v>8.612</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>333.86</v>
+        <v>342.88</v>
       </c>
       <c r="D20" t="n">
-        <v>431.26</v>
+        <v>384.98</v>
       </c>
       <c r="E20" t="n">
-        <v>3.744</v>
+        <v>5.532</v>
       </c>
     </row>
     <row r="21">
@@ -827,93 +827,93 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>447.76</v>
+        <v>298.12</v>
       </c>
       <c r="D21" t="n">
-        <v>487.28</v>
+        <v>343.02</v>
       </c>
       <c r="E21" t="n">
-        <v>5.412</v>
+        <v>8.128</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>377.58</v>
+        <v>361.28</v>
       </c>
       <c r="D22" t="n">
-        <v>454.78</v>
+        <v>424.8</v>
       </c>
       <c r="E22" t="n">
-        <v>3.072</v>
+        <v>7.88</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>474.82</v>
+        <v>417.8</v>
       </c>
       <c r="D23" t="n">
-        <v>555.96</v>
+        <v>475.7</v>
       </c>
       <c r="E23" t="n">
-        <v>4.284</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>430.26</v>
+        <v>417.14</v>
       </c>
       <c r="D24" t="n">
-        <v>467.08</v>
+        <v>451.76</v>
       </c>
       <c r="E24" t="n">
-        <v>3.732</v>
+        <v>2.984</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>359</v>
+        <v>343.02</v>
       </c>
       <c r="D25" t="n">
-        <v>400.12</v>
+        <v>389.56</v>
       </c>
       <c r="E25" t="n">
-        <v>5.568</v>
+        <v>5.104</v>
       </c>
     </row>
     <row r="26">
@@ -922,55 +922,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>431.26</v>
+        <v>424.8</v>
       </c>
       <c r="D26" t="n">
-        <v>469.26</v>
+        <v>478.14</v>
       </c>
       <c r="E26" t="n">
-        <v>1.584</v>
+        <v>4.656</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>469.26</v>
+        <v>384.98</v>
       </c>
       <c r="D27" t="n">
-        <v>537.99</v>
+        <v>466.78</v>
       </c>
       <c r="E27" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>2</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>pond16</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>400.12</v>
-      </c>
-      <c r="D28" t="n">
-        <v>457.08</v>
-      </c>
-      <c r="E28" t="n">
-        <v>2.972</v>
+        <v>2.452</v>
       </c>
     </row>
   </sheetData>
